--- a/src/main/resources/jxls_templates/rcvdocqcformm.xlsx
+++ b/src/main/resources/jxls_templates/rcvdocqcformm.xlsx
@@ -231,79 +231,79 @@
     <t>检验图片：</t>
   </si>
   <si>
+    <t>${page.master.cpics}</t>
+  </si>
+  <si>
+    <t>测定单位</t>
+  </si>
+  <si>
+    <t>${page.master.cmeasureunit=='0'? 'μm': '㎜'}</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${page.master.columns}" var="column"&gt;</t>
+  </si>
+  <si>
+    <t>${column}</t>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
+  </si>
+  <si>
+    <t>${row.seq}</t>
+  </si>
+  <si>
+    <t>&lt;jx:forEach items="${row.itemlist}" var="item"&gt;</t>
+  </si>
+  <si>
+    <t>${item}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[0]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[1]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[2]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[3]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[4]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[5]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[6]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[7]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[8]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[9]}</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>${page.master.cmemo}</t>
+  </si>
+  <si>
+    <t>判定</t>
+  </si>
+  <si>
+    <t>${page.master.isok=='0'? '不合格': '合格'}</t>
+  </si>
+  <si>
     <t>${page.master.picture}</t>
-  </si>
-  <si>
-    <t>测定单位</t>
-  </si>
-  <si>
-    <t>${page.master.cmeasureunit=='0'? 'μm': '㎜'}</t>
-  </si>
-  <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>检查项目</t>
-  </si>
-  <si>
-    <t>规格公差</t>
-  </si>
-  <si>
-    <t>检查方法</t>
-  </si>
-  <si>
-    <t>${row.seq}</t>
-  </si>
-  <si>
-    <t>${row.cqcitemname}</t>
-  </si>
-  <si>
-    <t>${row.options}</t>
-  </si>
-  <si>
-    <t>${row.cqcparamname}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[0]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[1]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[2]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[3]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[4]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[5]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[6]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[7]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[8]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[9]}</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>${page.master.cmemo}</t>
-  </si>
-  <si>
-    <t>判定</t>
-  </si>
-  <si>
-    <t>${page.master.isok=='0'? '不合格': '合格'}</t>
   </si>
 </sst>
 </file>
@@ -736,7 +736,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -747,9 +749,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1009,7 +1009,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1025,18 +1025,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1049,7 +1052,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1377,8 +1380,8 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1421,7 +1424,7 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -1485,24 +1488,24 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="6" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:15">
       <c r="A6" s="3" t="s">
@@ -1519,7 +1522,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -1530,174 +1533,174 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="13"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" customHeight="1" spans="1:15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" customHeight="1" spans="1:15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" customHeight="1" spans="1:15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" customHeight="1" spans="1:15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" customHeight="1" spans="1:15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1708,175 +1711,176 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" customHeight="1" spans="1:15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="12">
         <v>1</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="12">
         <v>2</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="12">
         <v>3</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="12">
         <v>4</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="12">
         <v>5</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="12">
         <v>6</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="12">
         <v>7</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="12">
         <v>8</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="12">
         <v>9</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="L18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="M18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="N18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="O18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="O18" s="11" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="1:15">
+      <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:15">
-      <c r="A19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="11" t="s">
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" s="11"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" customHeight="1" spans="1:15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" customHeight="1" spans="1:15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:O2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
@@ -1909,8 +1913,8 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1953,7 +1957,7 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -2017,24 +2021,24 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="6" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:15">
       <c r="A6" s="3" t="s">
@@ -2051,7 +2055,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -2062,174 +2066,174 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="13"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" customHeight="1" spans="1:15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" customHeight="1" spans="1:15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" customHeight="1" spans="1:15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" customHeight="1" spans="1:15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" customHeight="1" spans="1:15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2240,175 +2244,176 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" customHeight="1" spans="1:15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="12">
         <v>1</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="12">
         <v>2</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="12">
         <v>3</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="12">
         <v>4</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="12">
         <v>5</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="12">
         <v>6</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="12">
         <v>7</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="12">
         <v>8</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="12">
         <v>9</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="L18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="M18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="N18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="O18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="O18" s="11" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="1:15">
+      <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:15">
-      <c r="A19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="11" t="s">
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" s="11"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" customHeight="1" spans="1:15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" customHeight="1" spans="1:15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:O2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
@@ -2441,8 +2446,8 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:O18"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -2485,7 +2490,7 @@
       <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -2549,24 +2554,24 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="6" t="s">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:15">
       <c r="A6" s="3" t="s">
@@ -2583,7 +2588,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -2594,174 +2599,174 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="13"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
+      <c r="A8" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" customHeight="1" spans="1:15">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" customHeight="1" spans="1:15">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" customHeight="1" spans="1:15">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" customHeight="1" spans="1:15">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
     </row>
     <row r="16" customHeight="1" spans="1:15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2772,175 +2777,176 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" customHeight="1" spans="1:15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="12">
         <v>1</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="12">
         <v>2</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="12">
         <v>3</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="12">
         <v>4</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="12">
         <v>5</v>
       </c>
-      <c r="K17" s="11">
+      <c r="K17" s="12">
         <v>6</v>
       </c>
-      <c r="L17" s="11">
+      <c r="L17" s="12">
         <v>7</v>
       </c>
-      <c r="M17" s="11">
+      <c r="M17" s="12">
         <v>8</v>
       </c>
-      <c r="N17" s="11">
+      <c r="N17" s="12">
         <v>9</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="12">
         <v>10</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="12"/>
+      <c r="E18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="H18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="I18" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="K18" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="L18" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="M18" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="N18" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="O18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="O18" s="11" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="1:15">
+      <c r="A19" s="12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:15">
-      <c r="A19" s="11" t="s">
+      <c r="B19" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="11" t="s">
+      <c r="O19" s="12"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:15">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O20" s="11"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" customHeight="1" spans="1:15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" customHeight="1" spans="1:15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="23">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:O2"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>

--- a/src/main/resources/jxls_templates/rcvdocqcformm.xlsx
+++ b/src/main/resources/jxls_templates/rcvdocqcformm.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7860"/>
+    <workbookView windowWidth="19815" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.master.columnNames" var="column" direction="RIGHT")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A18" authorId="0">
       <text>
         <r>
@@ -49,7 +62,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="row.paramnamelist" var="param" direction="RIGHT")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="row.cvaluelist" var="cvalue" direction="RIGHT")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,6 +127,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.master.columnNames" var="column" direction="RIGHT")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A18" authorId="0">
       <text>
         <r>
@@ -98,6 +151,19 @@
           </rPr>
           <t xml:space="preserve">jx:each(items="page.details" var="row" lastCell="O18")
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="row.paramnamelist" var="param" direction="RIGHT")</t>
         </r>
       </text>
     </comment>
@@ -139,6 +205,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.master.columnNames" var="paramname" direction="RIGHT")</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A18" authorId="0">
       <text>
         <r>
@@ -150,6 +229,19 @@
           </rPr>
           <t xml:space="preserve">jx:each(items="page.details" var="row" lastCell="O18")
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="row.paramnamelist" var="paramname" direction="RIGHT")</t>
         </r>
       </text>
     </comment>
@@ -172,9 +264,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="44">
-  <si>
-    <t>在库检成绩表</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
+  <si>
+    <t>来料检成绩表</t>
   </si>
   <si>
     <t>机种</t>
@@ -183,7 +275,7 @@
     <t>${page.master.cequipmentname}</t>
   </si>
   <si>
-    <t xml:space="preserve"> 测定目的:</t>
+    <t xml:space="preserve"> 测定目的</t>
   </si>
   <si>
     <t>部品名称</t>
@@ -231,7 +323,7 @@
     <t>检验图片：</t>
   </si>
   <si>
-    <t>${page.master.cpics}</t>
+    <t>jx:image(lastCell="O8" src="page.master.cpics" imageType="jpg")</t>
   </si>
   <si>
     <t>测定单位</t>
@@ -243,22 +335,52 @@
     <t>序号</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${page.master.columns}" var="column"&gt;</t>
-  </si>
-  <si>
-    <t>${column}</t>
-  </si>
-  <si>
-    <t>&lt;/jx:forEach&gt;</t>
+    <t>${column.value}</t>
   </si>
   <si>
     <t>${row.seq}</t>
   </si>
   <si>
-    <t>&lt;jx:forEach items="${row.itemlist}" var="item"&gt;</t>
-  </si>
-  <si>
-    <t>${item}</t>
+    <t>${param.value}</t>
+  </si>
+  <si>
+    <t>${cvalue}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[2]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[3]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[4]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[5]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[6]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[7]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[8]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[9]}</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>${page.master.cmemo}</t>
+  </si>
+  <si>
+    <t>判定</t>
+  </si>
+  <si>
+    <t>${page.master.isok=='0'? '不合格': '合格'}</t>
   </si>
   <si>
     <t>${row.cvaluelist[0]}</t>
@@ -267,43 +389,7 @@
     <t>${row.cvaluelist[1]}</t>
   </si>
   <si>
-    <t>${row.cvaluelist[2]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[3]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[4]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[5]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[6]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[7]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[8]}</t>
-  </si>
-  <si>
-    <t>${row.cvaluelist[9]}</t>
-  </si>
-  <si>
-    <t>备注</t>
-  </si>
-  <si>
-    <t>${page.master.cmemo}</t>
-  </si>
-  <si>
-    <t>判定</t>
-  </si>
-  <si>
-    <t>${page.master.isok=='0'? '不合格': '合格'}</t>
-  </si>
-  <si>
-    <t>${page.master.picture}</t>
+    <t>${paramname.value}</t>
   </si>
 </sst>
 </file>
@@ -1031,11 +1117,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1053,7 +1136,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1380,8 +1466,8 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:O15"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -1488,16 +1574,16 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="7" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="15" t="s">
@@ -1522,7 +1608,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -1533,174 +1619,174 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" customHeight="1" spans="1:15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" customHeight="1" spans="1:15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" customHeight="1" spans="1:15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" customHeight="1" spans="1:15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" customHeight="1" spans="1:15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1711,173 +1797,165 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" customHeight="1" spans="1:15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3</v>
+      </c>
+      <c r="I17" s="11">
+        <v>4</v>
+      </c>
+      <c r="J17" s="11">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11">
+        <v>6</v>
+      </c>
+      <c r="L17" s="11">
+        <v>7</v>
+      </c>
+      <c r="M17" s="11">
+        <v>8</v>
+      </c>
+      <c r="N17" s="11">
+        <v>9</v>
+      </c>
+      <c r="O17" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:15">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12">
-        <v>2</v>
-      </c>
-      <c r="H17" s="12">
-        <v>3</v>
-      </c>
-      <c r="I17" s="12">
-        <v>4</v>
-      </c>
-      <c r="J17" s="12">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12">
-        <v>6</v>
-      </c>
-      <c r="L17" s="12">
-        <v>7</v>
-      </c>
-      <c r="M17" s="12">
-        <v>8</v>
-      </c>
-      <c r="N17" s="12">
-        <v>9</v>
-      </c>
-      <c r="O17" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:15">
-      <c r="A18" s="12" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="G18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="K18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="L18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="M18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="N18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="O18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="12" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="1:15">
+      <c r="A19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:15">
-      <c r="A19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="12"/>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" customHeight="1" spans="1:15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" customHeight="1" spans="1:15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -1885,7 +1963,8 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="L6:O6"/>
@@ -1913,8 +1992,8 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:J6"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -2021,16 +2100,16 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="7" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="15" t="s">
@@ -2055,7 +2134,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -2066,174 +2145,174 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" customHeight="1" spans="1:15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" customHeight="1" spans="1:15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" customHeight="1" spans="1:15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" customHeight="1" spans="1:15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" customHeight="1" spans="1:15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2244,173 +2323,165 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" customHeight="1" spans="1:15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3</v>
+      </c>
+      <c r="I17" s="11">
+        <v>4</v>
+      </c>
+      <c r="J17" s="11">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11">
+        <v>6</v>
+      </c>
+      <c r="L17" s="11">
+        <v>7</v>
+      </c>
+      <c r="M17" s="11">
+        <v>8</v>
+      </c>
+      <c r="N17" s="11">
+        <v>9</v>
+      </c>
+      <c r="O17" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:15">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12">
-        <v>2</v>
-      </c>
-      <c r="H17" s="12">
-        <v>3</v>
-      </c>
-      <c r="I17" s="12">
-        <v>4</v>
-      </c>
-      <c r="J17" s="12">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12">
-        <v>6</v>
-      </c>
-      <c r="L17" s="12">
-        <v>7</v>
-      </c>
-      <c r="M17" s="12">
-        <v>8</v>
-      </c>
-      <c r="N17" s="12">
-        <v>9</v>
-      </c>
-      <c r="O17" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:15">
-      <c r="A18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="K18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="L18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="M18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="N18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="O18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="12" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="1:15">
+      <c r="A19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:15">
-      <c r="A19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="12"/>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" customHeight="1" spans="1:15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" customHeight="1" spans="1:15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -2418,7 +2489,8 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="L6:O6"/>
@@ -2446,8 +2518,8 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:O15"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1"/>
@@ -2554,16 +2626,16 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="7" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="15" t="s">
@@ -2588,7 +2660,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="14" t="s">
         <v>16</v>
       </c>
       <c r="L6" s="4" t="s">
@@ -2599,174 +2671,174 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="14"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
     </row>
     <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" customHeight="1" spans="1:15">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13" customHeight="1" spans="1:15">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14" customHeight="1" spans="1:15">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15" customHeight="1" spans="1:15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16" customHeight="1" spans="1:15">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="3" t="s">
         <v>20</v>
       </c>
@@ -2777,173 +2849,165 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" customHeight="1" spans="1:15">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11">
+        <v>1</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2</v>
+      </c>
+      <c r="H17" s="11">
+        <v>3</v>
+      </c>
+      <c r="I17" s="11">
+        <v>4</v>
+      </c>
+      <c r="J17" s="11">
+        <v>5</v>
+      </c>
+      <c r="K17" s="11">
+        <v>6</v>
+      </c>
+      <c r="L17" s="11">
+        <v>7</v>
+      </c>
+      <c r="M17" s="11">
+        <v>8</v>
+      </c>
+      <c r="N17" s="11">
+        <v>9</v>
+      </c>
+      <c r="O17" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:15">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="12">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12">
-        <v>2</v>
-      </c>
-      <c r="H17" s="12">
-        <v>3</v>
-      </c>
-      <c r="I17" s="12">
-        <v>4</v>
-      </c>
-      <c r="J17" s="12">
-        <v>5</v>
-      </c>
-      <c r="K17" s="12">
-        <v>6</v>
-      </c>
-      <c r="L17" s="12">
-        <v>7</v>
-      </c>
-      <c r="M17" s="12">
-        <v>8</v>
-      </c>
-      <c r="N17" s="12">
-        <v>9</v>
-      </c>
-      <c r="O17" s="12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:15">
-      <c r="A18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="I18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="12" t="s">
+      <c r="J18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="K18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="L18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="M18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J18" s="12" t="s">
+      <c r="N18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="K18" s="12" t="s">
+      <c r="O18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="L18" s="12" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="1:15">
+      <c r="A19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="M18" s="12" t="s">
+      <c r="B19" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="N18" s="12" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O18" s="12" t="s">
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:15">
-      <c r="A19" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="O19" s="12"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:15">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="O20" s="12"/>
+      <c r="O20" s="11"/>
     </row>
     <row r="21" customHeight="1" spans="1:15">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
     </row>
     <row r="22" customHeight="1" spans="1:15">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="24">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:G2"/>
@@ -2951,7 +3015,8 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
     <mergeCell ref="L5:O5"/>
     <mergeCell ref="B6:J6"/>
     <mergeCell ref="L6:O6"/>

--- a/src/main/resources/jxls_templates/rcvdocqcformm.xlsx
+++ b/src/main/resources/jxls_templates/rcvdocqcformm.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IntelliJ_workspace\fengfu-pubbase\src\main\resources\jxls_templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F26EE4-59BF-4DAE-B9A8-EEF50F304C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="19815" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +14,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>CC</author>
     <author>赖凯帆</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,22 +34,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="A8" authorId="1" shapeId="0" xr:uid="{5B2B7FC5-49A4-442D-9617-B6F7E61D4412}">
+    <comment ref="A8" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:image(lastCell="O8" src="page.master.cpics" imageType="jpeg" size="original")</t>
         </r>
       </text>
     </comment>
-    <comment ref="B17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,30 +56,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="page.master.columnNames" var="column" direction="RIGHT"</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> lastCell="B17"</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>)</t>
+          <t>jx:each(items="page.master.columnNameList" var="param" direction="RIGHT" lastCell="B17")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="A18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="B18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -110,30 +83,11 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="row.paramnamelist" var="param" direction="RIGHT"</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve"> lastCell="B18"</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>)</t>
+          <t>jx:each(items="row.paramnamelist" var="param" direction="RIGHT" lastCell="B18")</t>
         </r>
       </text>
     </comment>
-    <comment ref="F18" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="C18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +96,8 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="row.cvaluelist" var="cvalue" direction="RIGHT" lastCell="O18")</t>
+          <t xml:space="preserve">jx:each(items="row.cvaluelist" var="cvalue" direction="RIGHT")
+</t>
         </r>
       </text>
     </comment>
@@ -219,16 +174,16 @@
     <t>序号</t>
   </si>
   <si>
-    <t>${column.value}</t>
+    <t>${param.value}</t>
   </si>
   <si>
     <t>${row.seq}</t>
   </si>
   <si>
-    <t>${param.value}</t>
-  </si>
-  <si>
-    <t>${cvalue}</t>
+    <t>${row.cvaluelist[0]}</t>
+  </si>
+  <si>
+    <t>${row.cvaluelist[1]}</t>
   </si>
   <si>
     <t>${row.cvaluelist[2]}</t>
@@ -270,11 +225,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,7 +256,157 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -307,46 +416,202 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -415,95 +680,366 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -761,132 +1297,142 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="12.25" customWidth="1"/>
+    <col min="12" max="12" width="20.25" customWidth="1"/>
+    <col min="13" max="13" width="0.125" customWidth="1"/>
+    <col min="14" max="14" width="17.125" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
+    <row r="1" customHeight="1" spans="1:15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-    </row>
-    <row r="2" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:15">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:15">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:15">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="3" t="s">
+      <c r="I5" s="7"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="16" t="s">
@@ -896,394 +1442,386 @@
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
     </row>
-    <row r="6" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" customHeight="1" spans="1:15">
+      <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="3" t="s">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-    </row>
-    <row r="7" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10" t="s">
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:15">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="12"/>
-    </row>
-    <row r="8" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="5" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5" t="s">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="O16" s="5"/>
-    </row>
-    <row r="17" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:12">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="2">
+      <c r="C17" s="11">
         <v>1</v>
       </c>
-      <c r="G17" s="2">
+      <c r="D17" s="11">
         <v>2</v>
       </c>
-      <c r="H17" s="2">
+      <c r="E17" s="11">
         <v>3</v>
       </c>
-      <c r="I17" s="2">
+      <c r="F17" s="11">
         <v>4</v>
       </c>
-      <c r="J17" s="2">
+      <c r="G17" s="11">
         <v>5</v>
       </c>
-      <c r="K17" s="2">
+      <c r="H17" s="11">
         <v>6</v>
       </c>
-      <c r="L17" s="2">
+      <c r="I17" s="11">
         <v>7</v>
       </c>
-      <c r="M17" s="2">
+      <c r="J17" s="11">
         <v>8</v>
       </c>
-      <c r="N17" s="2">
+      <c r="K17" s="11">
         <v>9</v>
       </c>
-      <c r="O17" s="2">
+      <c r="L17" s="11">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
+    <row r="18" customHeight="1" spans="1:12">
+      <c r="A18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="2" t="s">
+      <c r="E18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="F18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="G18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="H18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="I18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="J18" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="K18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="L18" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+    <row r="19" customHeight="1" spans="1:15">
+      <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="4" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="4" t="s">
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="4"/>
-    </row>
-    <row r="21" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="4"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-    </row>
-    <row r="22" spans="1:15" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="4"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="L5:O5"/>
+  <mergeCells count="22">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:O2"/>
     <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="F3:O4"/>
     <mergeCell ref="A8:O15"/>
     <mergeCell ref="B19:M22"/>
     <mergeCell ref="N20:O22"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/jxls_templates/rcvdocqcformm.xlsx
+++ b/src/main/resources/jxls_templates/rcvdocqcformm.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -105,8 +107,192 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>CC</author>
+    <author>赖凯帆</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="O25")
+jx:each(items="pages" var="page" multisheet="sheetNames" lastCell="O25")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="O8" src="page.master.cpics" imageType="jpeg" size="original")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.master.columnNameList" var="param" direction="RIGHT" lastCell="B17")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="page.details" var="row" lastCell="O18")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="row.paramnamelist" var="param" direction="RIGHT" lastCell="B18")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="row.cvaluelist" var="cvalue" direction="RIGHT")
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>CC</author>
+    <author>赖凯帆</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:area(lastCell="O25")
+jx:each(items="pages" var="page" multisheet="sheetNames" lastCell="O25")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A8" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:image(lastCell="O8" src="page.master.cpics" imageType="jpeg" size="original")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="page.master.columnNameList" var="param" direction="RIGHT" lastCell="B17")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="page.details" var="row" lastCell="O18")
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>jx:each(items="row.paramnamelist" var="param" direction="RIGHT" lastCell="B18")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">jx:each(items="row.cvaluelist" var="cvalue" direction="RIGHT")
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="38">
   <si>
     <t>来料检成绩表</t>
   </si>
@@ -406,13 +592,13 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1305,7 +1491,7 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:O15"/>
     </sheetView>
   </sheetViews>
@@ -1779,6 +1965,1053 @@
       <c r="O21" s="11"/>
     </row>
     <row r="22" customHeight="1" spans="1:15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="F3:O4"/>
+    <mergeCell ref="A8:O15"/>
+    <mergeCell ref="B19:M22"/>
+    <mergeCell ref="N20:O22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="13.625" customWidth="1"/>
+    <col min="11" max="11" width="13.125" customWidth="1"/>
+    <col min="12" max="12" width="13.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" ht="24" customHeight="1" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" ht="22" customHeight="1" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" ht="25" customHeight="1" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" ht="23" customHeight="1" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" ht="23" customHeight="1" spans="1:15">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" ht="21" customHeight="1" spans="1:12">
+      <c r="A17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4</v>
+      </c>
+      <c r="G17" s="11">
+        <v>5</v>
+      </c>
+      <c r="H17" s="11">
+        <v>6</v>
+      </c>
+      <c r="I17" s="11">
+        <v>7</v>
+      </c>
+      <c r="J17" s="11">
+        <v>8</v>
+      </c>
+      <c r="K17" s="11">
+        <v>9</v>
+      </c>
+      <c r="L17" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="24" customHeight="1" spans="1:12">
+      <c r="A18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" ht="24" customHeight="1" spans="1:15">
+      <c r="A19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:O2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="F3:O4"/>
+    <mergeCell ref="A8:O15"/>
+    <mergeCell ref="B19:M22"/>
+    <mergeCell ref="N20:O22"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.625" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
+    <col min="12" max="12" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="25.5" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:15">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" ht="23" customHeight="1" spans="1:15">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+    </row>
+    <row r="4" ht="23" customHeight="1" spans="1:15">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+    </row>
+    <row r="5" ht="21" customHeight="1" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:15">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" ht="63" customHeight="1" spans="1:15">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" ht="24" customHeight="1" spans="1:15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:12">
+      <c r="A17" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="11">
+        <v>1</v>
+      </c>
+      <c r="D17" s="11">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11">
+        <v>3</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4</v>
+      </c>
+      <c r="G17" s="11">
+        <v>5</v>
+      </c>
+      <c r="H17" s="11">
+        <v>6</v>
+      </c>
+      <c r="I17" s="11">
+        <v>7</v>
+      </c>
+      <c r="J17" s="11">
+        <v>8</v>
+      </c>
+      <c r="K17" s="11">
+        <v>9</v>
+      </c>
+      <c r="L17" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" ht="30" customHeight="1" spans="1:12">
+      <c r="A18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
